--- a/NatmiData/natmiOut_TPM/OldD7/LR-pairs_lrc2p/Il13-Il13ra1.xlsx
+++ b/NatmiData/natmiOut_TPM/OldD7/LR-pairs_lrc2p/Il13-Il13ra1.xlsx
@@ -79,19 +79,19 @@
     <t>FAPs</t>
   </si>
   <si>
+    <t>Resolving-Mac</t>
+  </si>
+  <si>
+    <t>Il13</t>
+  </si>
+  <si>
+    <t>Il13ra1</t>
+  </si>
+  <si>
+    <t>ECs</t>
+  </si>
+  <si>
     <t>MuSCs</t>
-  </si>
-  <si>
-    <t>Il13</t>
-  </si>
-  <si>
-    <t>Il13ra1</t>
-  </si>
-  <si>
-    <t>ECs</t>
-  </si>
-  <si>
-    <t>Resolving-Mac</t>
   </si>
 </sst>
 </file>
@@ -543,10 +543,10 @@
         <v>0.962421</v>
       </c>
       <c r="I2">
-        <v>0.8442793078885408</v>
+        <v>0.9352601111131627</v>
       </c>
       <c r="J2">
-        <v>0.8442793078885408</v>
+        <v>0.9352601111131628</v>
       </c>
       <c r="K2">
         <v>3</v>
@@ -555,28 +555,28 @@
         <v>1</v>
       </c>
       <c r="M2">
-        <v>5.760626333333334</v>
+        <v>8.415202000000001</v>
       </c>
       <c r="N2">
-        <v>17.281879</v>
+        <v>25.245606</v>
       </c>
       <c r="O2">
-        <v>0.1124958508646345</v>
+        <v>0.1569653516800918</v>
       </c>
       <c r="P2">
-        <v>0.1124958508646345</v>
+        <v>0.1569653516800918</v>
       </c>
       <c r="Q2">
-        <v>1.848049252117667</v>
+        <v>2.699655708014</v>
       </c>
       <c r="R2">
-        <v>16.632443269059</v>
+        <v>24.296901372126</v>
       </c>
       <c r="S2">
-        <v>0.09497791910832612</v>
+        <v>0.1468034322532393</v>
       </c>
       <c r="T2">
-        <v>0.09497791910832612</v>
+        <v>0.1468034322532393</v>
       </c>
     </row>
     <row r="3" spans="1:20">
@@ -605,10 +605,10 @@
         <v>0.962421</v>
       </c>
       <c r="I3">
-        <v>0.8442793078885408</v>
+        <v>0.9352601111131627</v>
       </c>
       <c r="J3">
-        <v>0.8442793078885408</v>
+        <v>0.9352601111131628</v>
       </c>
       <c r="K3">
         <v>3</v>
@@ -623,10 +623,10 @@
         <v>85.70143299999999</v>
       </c>
       <c r="O3">
-        <v>0.5578707978254833</v>
+        <v>0.5328513631375226</v>
       </c>
       <c r="P3">
-        <v>0.5578707978254833</v>
+        <v>0.5328513631375226</v>
       </c>
       <c r="Q3">
         <v>9.164539872143667</v>
@@ -635,10 +635,10 @@
         <v>82.48085884929299</v>
       </c>
       <c r="S3">
-        <v>0.4709987710793271</v>
+        <v>0.4983546250947996</v>
       </c>
       <c r="T3">
-        <v>0.4709987710793271</v>
+        <v>0.4983546250947996</v>
       </c>
     </row>
     <row r="4" spans="1:20">
@@ -652,7 +652,7 @@
         <v>23</v>
       </c>
       <c r="D4" t="s">
-        <v>21</v>
+        <v>25</v>
       </c>
       <c r="E4">
         <v>2</v>
@@ -667,10 +667,10 @@
         <v>0.962421</v>
       </c>
       <c r="I4">
-        <v>0.8442793078885408</v>
+        <v>0.9352601111131627</v>
       </c>
       <c r="J4">
-        <v>0.8442793078885408</v>
+        <v>0.9352601111131628</v>
       </c>
       <c r="K4">
         <v>3</v>
@@ -679,28 +679,28 @@
         <v>1</v>
       </c>
       <c r="M4">
-        <v>4.059731</v>
+        <v>2.790681000000001</v>
       </c>
       <c r="N4">
-        <v>12.179193</v>
+        <v>8.372043000000001</v>
       </c>
       <c r="O4">
-        <v>0.0792800759326923</v>
+        <v>0.05205344144940909</v>
       </c>
       <c r="P4">
-        <v>0.07928007593269232</v>
+        <v>0.05205344144940908</v>
       </c>
       <c r="Q4">
-        <v>1.302390122917</v>
+        <v>0.8952699995670003</v>
       </c>
       <c r="R4">
-        <v>11.721511106253</v>
+        <v>8.057429996103002</v>
       </c>
       <c r="S4">
-        <v>0.06693452763780441</v>
+        <v>0.04868350743379685</v>
       </c>
       <c r="T4">
-        <v>0.06693452763780443</v>
+        <v>0.04868350743379685</v>
       </c>
     </row>
     <row r="5" spans="1:20">
@@ -714,7 +714,7 @@
         <v>23</v>
       </c>
       <c r="D5" t="s">
-        <v>25</v>
+        <v>21</v>
       </c>
       <c r="E5">
         <v>2</v>
@@ -729,10 +729,10 @@
         <v>0.962421</v>
       </c>
       <c r="I5">
-        <v>0.8442793078885408</v>
+        <v>0.9352601111131627</v>
       </c>
       <c r="J5">
-        <v>0.8442793078885408</v>
+        <v>0.9352601111131628</v>
       </c>
       <c r="K5">
         <v>3</v>
@@ -741,28 +741,28 @@
         <v>1</v>
       </c>
       <c r="M5">
-        <v>12.81995433333333</v>
+        <v>13.838817</v>
       </c>
       <c r="N5">
-        <v>38.459863</v>
+        <v>41.516451</v>
       </c>
       <c r="O5">
-        <v>0.2503532753771899</v>
+        <v>0.2581298437329766</v>
       </c>
       <c r="P5">
-        <v>0.2503532753771899</v>
+        <v>0.2581298437329766</v>
       </c>
       <c r="Q5">
-        <v>4.112731089813667</v>
+        <v>4.439589365319001</v>
       </c>
       <c r="R5">
-        <v>37.014579808323</v>
+        <v>39.956304287871</v>
       </c>
       <c r="S5">
-        <v>0.2113680900630831</v>
+        <v>0.241418546331327</v>
       </c>
       <c r="T5">
-        <v>0.2113680900630831</v>
+        <v>0.241418546331327</v>
       </c>
     </row>
     <row r="6" spans="1:20">
@@ -785,16 +785,16 @@
         <v>0.3333333333333333</v>
       </c>
       <c r="G6">
-        <v>0.05917033333333333</v>
+        <v>0.02220666666666667</v>
       </c>
       <c r="H6">
-        <v>0.177511</v>
+        <v>0.06662</v>
       </c>
       <c r="I6">
-        <v>0.1557206921114593</v>
+        <v>0.06473988888683736</v>
       </c>
       <c r="J6">
-        <v>0.1557206921114593</v>
+        <v>0.06473988888683736</v>
       </c>
       <c r="K6">
         <v>3</v>
@@ -803,28 +803,28 @@
         <v>1</v>
       </c>
       <c r="M6">
-        <v>5.760626333333334</v>
+        <v>8.415202000000001</v>
       </c>
       <c r="N6">
-        <v>17.281879</v>
+        <v>25.245606</v>
       </c>
       <c r="O6">
-        <v>0.1124958508646345</v>
+        <v>0.1569653516800918</v>
       </c>
       <c r="P6">
-        <v>0.1124958508646345</v>
+        <v>0.1569653516800918</v>
       </c>
       <c r="Q6">
-        <v>0.3408581803521111</v>
+        <v>0.1868735857466667</v>
       </c>
       <c r="R6">
-        <v>3.067723623169</v>
+        <v>1.68186227172</v>
       </c>
       <c r="S6">
-        <v>0.01751793175630839</v>
+        <v>0.01016191942685249</v>
       </c>
       <c r="T6">
-        <v>0.01751793175630839</v>
+        <v>0.01016191942685249</v>
       </c>
     </row>
     <row r="7" spans="1:20">
@@ -847,16 +847,16 @@
         <v>0.3333333333333333</v>
       </c>
       <c r="G7">
-        <v>0.05917033333333333</v>
+        <v>0.02220666666666667</v>
       </c>
       <c r="H7">
-        <v>0.177511</v>
+        <v>0.06662</v>
       </c>
       <c r="I7">
-        <v>0.1557206921114593</v>
+        <v>0.06473988888683736</v>
       </c>
       <c r="J7">
-        <v>0.1557206921114593</v>
+        <v>0.06473988888683736</v>
       </c>
       <c r="K7">
         <v>3</v>
@@ -871,22 +871,22 @@
         <v>85.70143299999999</v>
       </c>
       <c r="O7">
-        <v>0.5578707978254833</v>
+        <v>0.5328513631375226</v>
       </c>
       <c r="P7">
-        <v>0.5578707978254833</v>
+        <v>0.5328513631375226</v>
       </c>
       <c r="Q7">
-        <v>1.690327452584778</v>
+        <v>0.6343810518288888</v>
       </c>
       <c r="R7">
-        <v>15.212947073263</v>
+        <v>5.70942946646</v>
       </c>
       <c r="S7">
-        <v>0.08687202674615624</v>
+        <v>0.03449673804272304</v>
       </c>
       <c r="T7">
-        <v>0.08687202674615624</v>
+        <v>0.03449673804272304</v>
       </c>
     </row>
     <row r="8" spans="1:20">
@@ -900,7 +900,7 @@
         <v>23</v>
       </c>
       <c r="D8" t="s">
-        <v>21</v>
+        <v>25</v>
       </c>
       <c r="E8">
         <v>1</v>
@@ -909,16 +909,16 @@
         <v>0.3333333333333333</v>
       </c>
       <c r="G8">
-        <v>0.05917033333333333</v>
+        <v>0.02220666666666667</v>
       </c>
       <c r="H8">
-        <v>0.177511</v>
+        <v>0.06662</v>
       </c>
       <c r="I8">
-        <v>0.1557206921114593</v>
+        <v>0.06473988888683736</v>
       </c>
       <c r="J8">
-        <v>0.1557206921114593</v>
+        <v>0.06473988888683736</v>
       </c>
       <c r="K8">
         <v>3</v>
@@ -927,28 +927,28 @@
         <v>1</v>
       </c>
       <c r="M8">
-        <v>4.059731</v>
+        <v>2.790681000000001</v>
       </c>
       <c r="N8">
-        <v>12.179193</v>
+        <v>8.372043000000001</v>
       </c>
       <c r="O8">
-        <v>0.0792800759326923</v>
+        <v>0.05205344144940909</v>
       </c>
       <c r="P8">
-        <v>0.07928007593269232</v>
+        <v>0.05205344144940908</v>
       </c>
       <c r="Q8">
-        <v>0.2402156365136667</v>
+        <v>0.06197172274000001</v>
       </c>
       <c r="R8">
-        <v>2.161940728623</v>
+        <v>0.5577455046600001</v>
       </c>
       <c r="S8">
-        <v>0.01234554829488789</v>
+        <v>0.003369934015612239</v>
       </c>
       <c r="T8">
-        <v>0.01234554829488789</v>
+        <v>0.003369934015612238</v>
       </c>
     </row>
     <row r="9" spans="1:20">
@@ -962,7 +962,7 @@
         <v>23</v>
       </c>
       <c r="D9" t="s">
-        <v>25</v>
+        <v>21</v>
       </c>
       <c r="E9">
         <v>1</v>
@@ -971,16 +971,16 @@
         <v>0.3333333333333333</v>
       </c>
       <c r="G9">
-        <v>0.05917033333333333</v>
+        <v>0.02220666666666667</v>
       </c>
       <c r="H9">
-        <v>0.177511</v>
+        <v>0.06662</v>
       </c>
       <c r="I9">
-        <v>0.1557206921114593</v>
+        <v>0.06473988888683736</v>
       </c>
       <c r="J9">
-        <v>0.1557206921114593</v>
+        <v>0.06473988888683736</v>
       </c>
       <c r="K9">
         <v>3</v>
@@ -989,28 +989,28 @@
         <v>1</v>
       </c>
       <c r="M9">
-        <v>12.81995433333333</v>
+        <v>13.838817</v>
       </c>
       <c r="N9">
-        <v>38.459863</v>
+        <v>41.516451</v>
       </c>
       <c r="O9">
-        <v>0.2503532753771899</v>
+        <v>0.2581298437329766</v>
       </c>
       <c r="P9">
-        <v>0.2503532753771899</v>
+        <v>0.2581298437329766</v>
       </c>
       <c r="Q9">
-        <v>0.7585609712214444</v>
+        <v>0.30731399618</v>
       </c>
       <c r="R9">
-        <v>6.827048740993</v>
+        <v>2.76582596562</v>
       </c>
       <c r="S9">
-        <v>0.03898518531410677</v>
+        <v>0.0167112974016496</v>
       </c>
       <c r="T9">
-        <v>0.03898518531410677</v>
+        <v>0.0167112974016496</v>
       </c>
     </row>
   </sheetData>
